--- a/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/MYSANITA/24/report-checklist_MYSANITA.xlsx
+++ b/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/MYSANITA/24/report-checklist_MYSANITA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.DELTADOMAIN\Desktop\FSE_2.0\SPECIALISTICA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.DELTADOMAIN\Desktop\FSE_2.0\DATI_SPECIALISTICA_E_RADIOLOGIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D457109C-A028-463B-B319-ADF36BDE313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090DC5D4-89A0-42B3-8F4B-00C7B974389B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,24 +1158,12 @@
     <t>2024-03-05T12:56:59Z</t>
   </si>
   <si>
-    <t>2024-03-05T12:58:06Z</t>
-  </si>
-  <si>
     <t>ff58b8c9e93a2147</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.100.4.4.8bcee8745f9541f639eab5850daddaae69f6bacd6d3294a40297edbb14b97809.7953e2c0ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>271d41da7afdadb7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.70.4.4.bd07df387733c888edce98eef541619f8c83ddf0f39ff59d446a1ef7583d5566.ba56f4bebd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-03-05T12:59:53Z</t>
-  </si>
-  <si>
     <t>2024-03-05T13:01:19Z</t>
   </si>
   <si>
@@ -1312,6 +1300,18 @@
   </si>
   <si>
     <t>2024-03-05T14:42:39Z</t>
+  </si>
+  <si>
+    <t>2024-03-75T12:58:06Z</t>
+  </si>
+  <si>
+    <t>2024-03-07T17:39:51Z</t>
+  </si>
+  <si>
+    <t>b842a312fd6768f5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.70.4.4.27756b8b0640bf76869e1bd523d54063c800f4e56edad8a12c5473a87bceb04f.d654ca0f47^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4356,14 +4356,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T653"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -4853,13 +4852,13 @@
         <v>45356</v>
       </c>
       <c r="G14" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="I14" s="24" t="s">
         <v>278</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>279</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>60</v>
@@ -4896,16 +4895,16 @@
         <v>67</v>
       </c>
       <c r="F15" s="26">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>60</v>
@@ -4945,13 +4944,13 @@
         <v>45356</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J16" s="28" t="s">
         <v>60</v>
@@ -4991,13 +4990,13 @@
         <v>45356</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J17" s="28" t="s">
         <v>60</v>
@@ -5016,7 +5015,7 @@
         <v>60</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="22"/>
       <c r="R17" s="39"/>
@@ -5025,7 +5024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:20" ht="120.75" thickBot="1">
       <c r="A18" s="15">
         <v>152</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="19" spans="1:20" ht="120.75" thickBot="1">
       <c r="A19" s="15">
         <v>153</v>
       </c>
@@ -5125,13 +5124,13 @@
         <v>45356</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J20" s="28" t="s">
         <v>60</v>
@@ -5150,7 +5149,7 @@
         <v>60</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="22"/>
       <c r="R20" s="39"/>
@@ -5159,7 +5158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="21" spans="1:20" ht="120.75" thickBot="1">
       <c r="A21" s="15">
         <v>155</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="135.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:20" ht="135.75" thickBot="1">
       <c r="A22" s="15">
         <v>156</v>
       </c>
@@ -5259,13 +5258,13 @@
         <v>45356</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>60</v>
@@ -5284,7 +5283,7 @@
         <v>60</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="28"/>
       <c r="R23" s="29"/>
@@ -5315,13 +5314,13 @@
         <v>45356</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>60</v>
@@ -5340,7 +5339,7 @@
         <v>60</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q24" s="28"/>
       <c r="R24" s="29"/>
@@ -5369,13 +5368,13 @@
         <v>45356</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J25" s="28" t="s">
         <v>60</v>
@@ -5394,7 +5393,7 @@
         <v>60</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="28"/>
       <c r="R25" s="29"/>
@@ -5423,13 +5422,13 @@
         <v>45356</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>60</v>
@@ -5448,7 +5447,7 @@
         <v>60</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="28"/>
       <c r="R26" s="29"/>
@@ -5477,13 +5476,13 @@
         <v>45356</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J27" s="28" t="s">
         <v>60</v>
@@ -5502,7 +5501,7 @@
         <v>60</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q27" s="22"/>
       <c r="R27" s="39"/>
@@ -5511,7 +5510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="135.75" hidden="1" thickBot="1">
+    <row r="28" spans="1:20" ht="135.75" thickBot="1">
       <c r="A28" s="15">
         <v>162</v>
       </c>
@@ -5571,13 +5570,13 @@
         <v>45356</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J29" s="22" t="s">
         <v>60</v>
@@ -5596,7 +5595,7 @@
         <v>60</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q29" s="22"/>
       <c r="R29" s="39"/>
@@ -5625,13 +5624,13 @@
         <v>45356</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>60</v>
@@ -5650,7 +5649,7 @@
         <v>60</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="22"/>
       <c r="R30" s="39"/>
@@ -5679,13 +5678,13 @@
         <v>45356</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J31" s="22" t="s">
         <v>60</v>
@@ -5704,7 +5703,7 @@
         <v>60</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q31" s="22"/>
       <c r="R31" s="39"/>
@@ -5733,13 +5732,13 @@
         <v>45356</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J32" s="22" t="s">
         <v>60</v>
@@ -5758,7 +5757,7 @@
         <v>60</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q32" s="22"/>
       <c r="R32" s="39"/>
@@ -5787,13 +5786,13 @@
         <v>45356</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J33" s="22" t="s">
         <v>60</v>
@@ -5812,7 +5811,7 @@
         <v>60</v>
       </c>
       <c r="P33" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q33" s="22"/>
       <c r="R33" s="39"/>
@@ -5841,13 +5840,13 @@
         <v>45356</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J34" s="22" t="s">
         <v>60</v>
@@ -5866,7 +5865,7 @@
         <v>60</v>
       </c>
       <c r="P34" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q34" s="22"/>
       <c r="R34" s="39"/>
@@ -5875,7 +5874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="135.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:20" ht="135.75" thickBot="1">
       <c r="A35" s="15">
         <v>169</v>
       </c>
@@ -5935,13 +5934,13 @@
         <v>45356</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H36" s="47" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I36" s="47" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J36" s="22" t="s">
         <v>60</v>
@@ -5959,7 +5958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="135.75" thickBot="1">
+    <row r="37" spans="1:20" ht="135">
       <c r="A37" s="59">
         <v>11</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="135.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:20" ht="135">
       <c r="A38" s="59">
         <v>12</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="135.75" hidden="1" thickBot="1">
+    <row r="39" spans="1:20" ht="135">
       <c r="A39" s="59">
         <v>13</v>
       </c>
@@ -6079,7 +6078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="135.75" hidden="1" thickBot="1">
+    <row r="40" spans="1:20" ht="135.75" thickBot="1">
       <c r="A40" s="59">
         <v>14</v>
       </c>
@@ -6225,7 +6224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="261.75" hidden="1" customHeight="1">
+    <row r="43" spans="1:20" ht="261.75" customHeight="1">
       <c r="A43" s="59">
         <v>47</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="177" hidden="1" customHeight="1">
+    <row r="44" spans="1:20" ht="177" customHeight="1">
       <c r="A44" s="59">
         <v>75</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="149.25" hidden="1" customHeight="1">
+    <row r="45" spans="1:20" ht="149.25" customHeight="1">
       <c r="A45" s="59">
         <v>76</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="169.5" hidden="1" customHeight="1">
+    <row r="46" spans="1:20" ht="169.5" customHeight="1">
       <c r="A46" s="59">
         <v>77</v>
       </c>
@@ -6377,7 +6376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:20" ht="105">
       <c r="A47" s="59">
         <v>78</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="48" spans="1:20" ht="120">
       <c r="A48" s="59">
         <v>79</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:20" ht="120.75" thickBot="1">
       <c r="A49" s="59">
         <v>80</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="120.75" thickBot="1">
+    <row r="51" spans="1:20" ht="120">
       <c r="A51" s="59">
         <v>82</v>
       </c>
@@ -6599,7 +6598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="52" spans="1:20" ht="105">
       <c r="A52" s="48">
         <v>83</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="53" spans="1:20" ht="105">
       <c r="A53" s="48">
         <v>84</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="54" spans="1:20" ht="120">
       <c r="A54" s="48">
         <v>85</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="55" spans="1:20" ht="120">
       <c r="A55" s="48">
         <v>86</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="135.75" hidden="1" thickBot="1">
+    <row r="56" spans="1:20" ht="135">
       <c r="A56" s="48">
         <v>87</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="57" spans="1:20" ht="120">
       <c r="A57" s="48">
         <v>88</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="58" spans="1:20" ht="105">
       <c r="A58" s="48">
         <v>89</v>
       </c>
@@ -6865,7 +6864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="59" spans="1:20" ht="105">
       <c r="A59" s="48">
         <v>90</v>
       </c>
@@ -6903,7 +6902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:20" ht="120.75" thickBot="1">
       <c r="A60" s="48">
         <v>91</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="120" hidden="1">
+    <row r="62" spans="1:20" ht="120">
       <c r="A62" s="48">
         <v>93</v>
       </c>
@@ -16198,13 +16197,7 @@
       <c r="T653" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T63" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="SI"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:T63" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
